--- a/Document/5주차/업무기능분할도_남동관.xlsx
+++ b/Document/5주차/업무기능분할도_남동관.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gangchanhwi/Desktop/inha/inha_3-1/gpteacher/document/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\namdk\OneDrive\batang\학교\스타트업\main\Document\5주차\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C08CBC-5DE5-7A4A-9597-26AC265847D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0CF4F3-C13A-4634-9534-E807ADC2D4D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14700" yWindow="740" windowWidth="14700" windowHeight="18380" xr2:uid="{F987EEC4-94CB-CD49-89CA-B4A016F340BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{F987EEC4-94CB-CD49-89CA-B4A016F340BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>프로세스ID</t>
   </si>
@@ -54,103 +54,127 @@
   </si>
   <si>
     <t>처리흐름</t>
-  </si>
-  <si>
-    <t>MAIN-007</t>
-  </si>
-  <si>
-    <t>로비 화면</t>
   </si>
   <si>
     <t>어플리케이션
 기능명</t>
-  </si>
-  <si>
-    <t>MAIN-006</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAIN-008</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAIN-009</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학습 목록 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. PDF파일을 업로드 및 학습 제목 입력 후 목록을 생성한다.
-2. PDF파일을 서버에 저장한 후 텍스트를 추출한다.
-3. 추출한 데이터를 pdf 테이블에 저장한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학습할 PDF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업로드한 PDF파일의 학습 목록을 생성한 후 텍스트를 추출하여 DB에 저장한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모의 시험 생성</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. GPT API에 추출한 텍스트와 프롬프트를 입력한다.
-2. GPT API를 통해 출력된 문답과 해설을 question_answer 테이블에 저장한다.
-3.  question_answer 테이블의 값을 사용해 모의 시험 UI를 구현한다.
-4. 제출한 답안을  question_answer 테이블에 저장한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPT API를 이용하여 PDF 바탕의 문답과 해설을 구하고 사용자가 제출한 답안을 DB에 저장한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 답안</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모의 시험 채점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자가 제출한 답안의 채점 결과와 해설을 출력한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. GPT API로 얻은 답과 사용자의 답을 비교하여 채점한다.
-2. 오답 여부와 해설을 출력한다.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>학습 통계 시각화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학습 결과를 종합하여 시각화해 출력한다.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1. 각 시험 점수를 종합한 그래프를 출력한다.
 2. 취약한 부분과 잘 학습된 부분을 나누어 그래프로 출력한다.
 3. GPT API를 이용해 학습 진단 결과를 텍스트로 출력한다.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPTC-008</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPTC-009</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPTC-010</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPTC-011</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>학습명
+PDF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 학습명을 입력한다.
+2. PDF파일을 업로드한다.
+3. PDF파일을 서버에 저장한다.
+4. PDF에서 텍스트를 추출하고 STUDY 테이블에 저장한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학습 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDF 파일을 업로드하여 새로운 학습을 생성한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 시험명을 입력한다.
+2. STUDY 테이블의 텍스트와 문제 생성 프롬프트로 GPT API를 호출한다.
+3. GPT API 응답을 받아 EXAM, QUESTION, CHOICE 테이블에 저장한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시험 생성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPT API를 이용하여 시험을 생성한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답안 제출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시험명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 답안을 제출하면 DB를 업데이트한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시험</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시험 해설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 사용자가 답안을 제출한다.
+2. CHOICE 테이블을 업데이트한다. 
+3. EXAM 테이블에 점수를 업데이트한다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 제출한 답안을 바탕으로 해설을 제공한다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPTC-012</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>학습 통계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 학습의 시험들을 종합하여 통계를 제공한다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 총점과 각 문제의 답, 해설을 출력한다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -173,21 +197,21 @@
       <charset val="129"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
-      <name val="HY크리스탈M"/>
-      <family val="1"/>
+      <name val="구름 산스 400"/>
+      <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
       <sz val="14"/>
-      <name val="HY크리스탈M"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="돋움"/>
+      <name val="구름 산스 400"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -213,146 +237,23 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -370,43 +271,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -415,64 +286,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -809,137 +638,264 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C07038-21D3-5346-9787-096967C296DB}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="7.5546875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="38.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="59.5703125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="7.5703125" style="3"/>
+    <col min="4" max="4" width="19.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="43.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="70.77734375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="7.5546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" thickBot="1"/>
-    <row r="2" spans="1:7" ht="27">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" ht="24" x14ac:dyDescent="0.15">
+      <c r="A3" s="3"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="23"/>
-    </row>
-    <row r="3" spans="1:7" ht="29" thickBot="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="63">
-      <c r="A4" s="3"/>
-      <c r="B4" s="6" t="s">
+      <c r="D4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="G4" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3"/>
+      <c r="B5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="D5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="127" thickBot="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="12" t="s">
+    </row>
+    <row r="6" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3"/>
+      <c r="B6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="42">
-      <c r="A6" s="3"/>
-      <c r="B6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="16" t="s">
+      <c r="E6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3"/>
+      <c r="B7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="63">
-      <c r="A7" s="3"/>
-      <c r="B7" s="14" t="s">
+      <c r="C8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="21" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="23" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="24" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="25" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="26" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="27" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="28" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="29" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="30" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="31" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="32" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="33" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="34" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="35" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="36" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="37" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="38" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="39" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="40" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="41" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="42" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="F2:G2"/>
@@ -950,5 +906,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>